--- a/templates/Hackathon_nanodrop.xlsx
+++ b/templates/Hackathon_nanodrop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\ARC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B708DFC1-9B2D-4195-BFC8-C04B8CC06D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306FFF6-C985-415E-9349-6A1E3F6CA80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{60F5902A-5658-499A-A521-EF0838D0B4E3}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{60F5902A-5658-499A-A521-EF0838D0B4E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Nanodrop_measurement" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,88 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1E3AD2D9-8639-429C-8FA3-326D03C04534}</author>
+    <author>tc={378DEDCF-BFE2-43CC-B529-60DF24DE58E3}</author>
+    <author>tc={FC2FB94F-3335-46E1-A0C3-D38D71504AFD}</author>
+    <author>tc={5D28CD06-ABC7-44BF-8A77-2501F4BAD598}</author>
+    <author>tc={8BA7934E-3197-4108-9454-F27C75D4DCC2}</author>
+    <author>tc={9A7B6EAC-AEF9-41DF-9866-DD10DE84058E}</author>
+    <author>tc={D78F4A99-801F-461C-9C53-9221F641D8D3}</author>
+    <author>tc={4B4A45EB-613E-442D-BF07-819A24E59E06}</author>
+    <author>tc={F823AB1E-0BD3-43C9-963D-768CE1360E35}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1E3AD2D9-8639-429C-8FA3-326D03C04534}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=d7baa4b8-7b16-4a42-b44d-f2a9df93b932</t>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{378DEDCF-BFE2-43CC-B529-60DF24DE58E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{FC2FB94F-3335-46E1-A0C3-D38D71504AFD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{5D28CD06-ABC7-44BF-8A77-2501F4BAD598}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{8BA7934E-3197-4108-9454-F27C75D4DCC2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{9A7B6EAC-AEF9-41DF-9866-DD10DE84058E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{D78F4A99-801F-461C-9C53-9221F641D8D3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{4B4A45EB-613E-442D-BF07-819A24E59E06}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{F823AB1E-0BD3-43C9-963D-768CE1360E35}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
       </text>
     </comment>
   </commentList>
@@ -55,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Source Name</t>
   </si>
@@ -120,9 +192,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -180,18 +249,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>d7baa4b8-7b16-4a42-b44d-f2a9df93b932</t>
   </si>
   <si>
@@ -241,13 +298,25 @@
   </si>
   <si>
     <t>Term Accession Number (NFDI4PSO:1000160)</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +339,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -421,8 +496,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,6 +514,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kevin F" id="{12437006-BE5C-4E98-B810-BB5770E75131}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
   <person displayName="Fabian Haas" id="{433F541F-A524-41B1-B199-E4001A862EBC}" userId="b3b1f7033b8df0eb" providerId="Windows Live"/>
 </personList>
 </file>
@@ -476,7 +552,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -778,6 +854,30 @@
   <threadedComment ref="A1" dT="2022-01-26T15:14:39.95" personId="{433F541F-A524-41B1-B199-E4001A862EBC}" id="{458A2DC6-80BB-4BEE-A27A-AD6CC39C9714}" parentId="{1E3AD2D9-8639-429C-8FA3-326D03C04534}">
     <text>id=d7baa4b8-7b16-4a42-b44d-f2a9df93b932</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{12437006-BE5C-4E98-B810-BB5770E75131}" id="{378DEDCF-BFE2-43CC-B529-60DF24DE58E3}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{12437006-BE5C-4E98-B810-BB5770E75131}" id="{FC2FB94F-3335-46E1-A0C3-D38D71504AFD}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{12437006-BE5C-4E98-B810-BB5770E75131}" id="{5D28CD06-ABC7-44BF-8A77-2501F4BAD598}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{12437006-BE5C-4E98-B810-BB5770E75131}" id="{8BA7934E-3197-4108-9454-F27C75D4DCC2}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{12437006-BE5C-4E98-B810-BB5770E75131}" id="{9A7B6EAC-AEF9-41DF-9866-DD10DE84058E}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{12437006-BE5C-4E98-B810-BB5770E75131}" id="{D78F4A99-801F-461C-9C53-9221F641D8D3}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{12437006-BE5C-4E98-B810-BB5770E75131}" id="{4B4A45EB-613E-442D-BF07-819A24E59E06}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{12437006-BE5C-4E98-B810-BB5770E75131}" id="{F823AB1E-0BD3-43C9-963D-768CE1360E35}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -816,9 +916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259AD9B0-5AEA-4F5E-BC15-EA76DD5B667C}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -895,22 +995,22 @@
         <v>13</v>
       </c>
       <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
         <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s">
-        <v>61</v>
       </c>
       <c r="W1" t="s">
         <v>1</v>
@@ -926,16 +1026,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A16521-8BA8-42D8-AD4F-81EE3C7D2CC3}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,7 +1044,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,7 +1052,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,7 +1060,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,42 +1068,42 @@
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1011,75 +1112,78 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>53</v>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1101,37 +1205,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="7"/>
+      <c r="A25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="9"/>
+      <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{5EE1854A-8332-4577-BF42-B2D07922B695}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{5EE1854A-8332-4577-BF42-B2D07922B695}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
